--- a/scraped_sheet.xlsx
+++ b/scraped_sheet.xlsx
@@ -454,10 +454,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -923,7 +923,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Cumi-Tube-Kupas-Poseidon-1-kg--Frozen-Seafood-DNIQP</t>
+          <t>https://barangbaku.com/product/Fillet-Ikan-Patin-Glazing-30-HvVKG</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -933,12 +933,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cumi Tube Kupas Poseidon 1 kg- Frozen Seafood</t>
+          <t>Fillet Ikan Patin Glazing 30%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>65000/Kg</t>
+          <t>43500/Kg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Cumi</t>
+          <t>Ikan Air Laut</t>
         </is>
       </c>
       <c r="J10" t="b">
@@ -973,7 +973,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Iga-Sapi-9Zi8M</t>
+          <t>https://barangbaku.com/product/Fillet-Ikan-Dori-Patin-Glazing-40-7WFSo</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -983,12 +983,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Iga Sapi</t>
+          <t>Fillet Ikan Dori-Patin Glazing 40%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>116000/Gram</t>
+          <t>40000/Kg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Peternakan</t>
+          <t>Perikanan</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Daging Sapi</t>
+          <t>Ikan Air Laut</t>
         </is>
       </c>
       <c r="J11" t="b">
@@ -1023,7 +1023,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Daging-Teriyaki-1-Kg-R3hmB</t>
+          <t>https://barangbaku.com/product/Cumi-Tube-Kupas-Poseidon-1-kg--Frozen-Seafood-DNIQP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1033,12 +1033,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Daging Teriyaki 1 Kg</t>
+          <t>Cumi Tube Kupas Poseidon 1 kg- Frozen Seafood</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>133500/Gram</t>
+          <t>65000/Kg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Peternakan</t>
+          <t>Perikanan</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Daging Lainnya</t>
+          <t>Cumi</t>
         </is>
       </c>
       <c r="J12" t="b">
@@ -1073,7 +1073,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Buntut-Sapi-1-Kg-OHqeq</t>
+          <t>https://barangbaku.com/product/Iga-Sapi-9Zi8M</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1083,12 +1083,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Buntut Sapi 1 Kg</t>
+          <t>Iga Sapi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>185000/Gram</t>
+          <t>116000/Gram</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1123,7 +1123,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Tenggiri-Steak-Badan-lSB1g</t>
+          <t>https://barangbaku.com/product/Daging-Teriyaki-1-Kg-R3hmB</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1133,12 +1133,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tenggiri Steak Badan</t>
+          <t>Daging Teriyaki 1 Kg</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>48000/500Gram</t>
+          <t>133500/Gram</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Perikanan</t>
+          <t>Peternakan</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Ikan Air Laut</t>
+          <t>Daging Lainnya</t>
         </is>
       </c>
       <c r="J14" t="b">
@@ -1173,7 +1173,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Tenggiri-Saku-Loin---Skin-On-500gram-3YAPg</t>
+          <t>https://barangbaku.com/product/Buntut-Sapi-1-Kg-OHqeq</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1183,12 +1183,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Tenggiri Saku Loin - Skin On 500gram</t>
+          <t>Buntut Sapi 1 Kg</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>72000/500Gram</t>
+          <t>185000/Gram</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Perikanan</t>
+          <t>Peternakan</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Ikan Air Laut</t>
+          <t>Daging Sapi</t>
         </is>
       </c>
       <c r="J15" t="b">
@@ -1223,47 +1223,47 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Oriza-Virgin-Coconut-Oil-3Oqp4</t>
+          <t>https://barangbaku.com/product/Tenggiri-Steak-Badan-lSB1g</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Oriza-Organik-Shop-27</t>
+          <t>https://barangbaku.com/pasarbb_product_list</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Oriza Virgin Coconut Oil</t>
+          <t>Tenggiri Steak Badan</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25000 - Rp125000/botol</t>
+          <t>48000/500Gram</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Oriza Organik Shop</t>
+          <t>Official Barang Baku</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gianyar</t>
+          <t>Jakarta Utara</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Perkebunan</t>
+          <t>Perikanan</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Olahan / Komponen</t>
+          <t>Hasil / Material</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Minyak</t>
+          <t>Ikan Air Laut</t>
         </is>
       </c>
       <c r="J16" t="b">
@@ -1273,27 +1273,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Bawang-putih-Honan--Banci-zYNSk</t>
+          <t>https://barangbaku.com/product/Tenggiri-Saku-Loin---Skin-On-500gram-3YAPg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Bawang-Putih-JABODETABEK-24</t>
+          <t>https://barangbaku.com/pasarbb_product_list</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bawang putih Honan  Banci</t>
+          <t>Tenggiri Saku Loin - Skin On 500gram</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>220000/Bal</t>
+          <t>72000/500Gram</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bawang Putih JABODETABEK</t>
+          <t>Official Barang Baku</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Pertanian</t>
+          <t>Perikanan</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Bawang</t>
+          <t>Ikan Air Laut</t>
         </is>
       </c>
       <c r="J17" t="b">
@@ -1323,47 +1323,47 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Beras-Merah-Organik-Shizenna-IHaHH</t>
+          <t>https://barangbaku.com/product/Oriza-Virgin-Coconut-Oil-3Oqp4</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Beras-Shizenna-25</t>
+          <t>https://barangbaku.com/shops/visit/Oriza-Organik-Shop-27</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Beras Merah Organik Shizenna</t>
+          <t>Oriza Virgin Coconut Oil</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>44000/Pack</t>
+          <t>25000 - Rp125000/botol</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Beras Shizenna</t>
+          <t>Oriza Organik Shop</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Surabaya</t>
+          <t>Gianyar</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pertanian</t>
+          <t>Perkebunan</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Hasil / Material</t>
+          <t>Olahan / Komponen</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Beras</t>
+          <t>Minyak</t>
         </is>
       </c>
       <c r="J18" t="b">
@@ -1373,32 +1373,32 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Beras-Putih-Organik-Shizenna-dgY2F</t>
+          <t>https://barangbaku.com/product/Bawang-putih-Honan--Banci-zYNSk</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Beras-Shizenna-25</t>
+          <t>https://barangbaku.com/shops/visit/Bawang-Putih-JABODETABEK-24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Beras Putih Organik Shizenna</t>
+          <t>Bawang putih Honan  Banci</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>42000/Pack</t>
+          <t>220000/Bal</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Beras Shizenna</t>
+          <t>Bawang Putih JABODETABEK</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Surabaya</t>
+          <t>Jakarta Utara</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Beras</t>
+          <t>Bawang</t>
         </is>
       </c>
       <c r="J19" t="b">
@@ -1423,37 +1423,37 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Kopi-Green-Bean-Arabika-Gunung-PrauDieng-Grade-1-5Xcr4</t>
+          <t>https://barangbaku.com/product/Beras-Merah-Organik-Shizenna-IHaHH</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Syer-Kopi-28</t>
+          <t>https://barangbaku.com/shops/visit/Beras-Shizenna-25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Kopi Green Bean Arabika Gunung Prau,Dieng Grade 1</t>
+          <t>Beras Merah Organik Shizenna</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>87000/kilogram</t>
+          <t>44000/Pack</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Syer Kopi</t>
+          <t>Beras Shizenna</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tangerang Selatan</t>
+          <t>Surabaya</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Perkebunan</t>
+          <t>Pertanian</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Kopi</t>
+          <t>Beras</t>
         </is>
       </c>
       <c r="J20" t="b">
@@ -1473,37 +1473,37 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Kopi-Green-Bean-Arabika-Gayo-Aceh-Wine-Grade-1-qEOIQ</t>
+          <t>https://barangbaku.com/product/Beras-Putih-Organik-Shizenna-dgY2F</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Syer-Kopi-28</t>
+          <t>https://barangbaku.com/shops/visit/Beras-Shizenna-25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kopi Green Bean Arabika Gayo Aceh Wine Grade 1</t>
+          <t>Beras Putih Organik Shizenna</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>170000/kilogram</t>
+          <t>42000/Pack</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Syer Kopi</t>
+          <t>Beras Shizenna</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tangerang Selatan</t>
+          <t>Surabaya</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Perkebunan</t>
+          <t>Pertanian</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Kopi</t>
+          <t>Beras</t>
         </is>
       </c>
       <c r="J21" t="b">
@@ -1523,7 +1523,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Kopi-Green-Bean-Arabika-Bajawa-Flores-Grade-1-6CHqN</t>
+          <t>https://barangbaku.com/product/Kopi-Green-Bean-Arabika-Gunung-PrauDieng-Grade-1-5Xcr4</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1533,12 +1533,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kopi Green Bean Arabika Bajawa Flores Grade 1</t>
+          <t>Kopi Green Bean Arabika Gunung Prau,Dieng Grade 1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>100000/kilogram</t>
+          <t>87000/kilogram</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1573,7 +1573,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Kopi-Green-Bean-Arabika-Ciwidey-Bandung-Grade-1-ayd1P</t>
+          <t>https://barangbaku.com/product/Kopi-Green-Bean-Arabika-Gayo-Aceh-Wine-Grade-1-qEOIQ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1583,12 +1583,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Kopi Green Bean Arabika Ciwidey Bandung Grade 1</t>
+          <t>Kopi Green Bean Arabika Gayo Aceh Wine Grade 1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>102000/kilogram</t>
+          <t>170000/kilogram</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1623,7 +1623,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Kopi-Green-Bean-Arabika-Kintamani-Bali-Grade-1-R5wkf</t>
+          <t>https://barangbaku.com/product/Kopi-Green-Bean-Arabika-Bajawa-Flores-Grade-1-6CHqN</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1633,12 +1633,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Kopi Green Bean Arabika Kintamani Bali Grade 1</t>
+          <t>Kopi Green Bean Arabika Bajawa Flores Grade 1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>108000/kilogram</t>
+          <t>100000/kilogram</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1673,37 +1673,37 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Lurik-Biasa-BlfoK</t>
+          <t>https://barangbaku.com/product/Kopi-Green-Bean-Arabika-Ciwidey-Bandung-Grade-1-ayd1P</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/mangesti.id-30</t>
+          <t>https://barangbaku.com/shops/visit/Syer-Kopi-28</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lurik Biasa</t>
+          <t>Kopi Green Bean Arabika Ciwidey Bandung Grade 1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>95000/1</t>
+          <t>102000/kilogram</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>mangesti.id</t>
+          <t>Syer Kopi</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Sukoharjo</t>
+          <t>Tangerang Selatan</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tekstil</t>
+          <t>Perkebunan</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Batik</t>
+          <t>Kopi</t>
         </is>
       </c>
       <c r="J25" t="b">
@@ -1723,37 +1723,37 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/lurik-gradasi-TzIl5</t>
+          <t>https://barangbaku.com/product/Kopi-Green-Bean-Arabika-Kintamani-Bali-Grade-1-R5wkf</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/mangesti.id-30</t>
+          <t>https://barangbaku.com/shops/visit/Syer-Kopi-28</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>lurik gradasi</t>
+          <t>Kopi Green Bean Arabika Kintamani Bali Grade 1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>105000/1</t>
+          <t>108000/kilogram</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>mangesti.id</t>
+          <t>Syer Kopi</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sukoharjo</t>
+          <t>Tangerang Selatan</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tekstil</t>
+          <t>Perkebunan</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Batik</t>
+          <t>Kopi</t>
         </is>
       </c>
       <c r="J26" t="b">
@@ -1773,7 +1773,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/kain-jumputan-guaEu</t>
+          <t>https://barangbaku.com/product/Lurik-Biasa-BlfoK</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>kain jumputan</t>
+          <t>Lurik Biasa</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>100000/1</t>
+          <t>95000/1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1813,7 +1813,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Kain</t>
+          <t>Batik</t>
         </is>
       </c>
       <c r="J27" t="b">
@@ -1823,7 +1823,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/lawasan-klasik-DmBt2</t>
+          <t>https://barangbaku.com/product/lurik-gradasi-TzIl5</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>lawasan klasik</t>
+          <t>lurik gradasi</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1873,47 +1873,47 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Kerupuk-kulit-sapi-6DFLY</t>
+          <t>https://barangbaku.com/product/kain-jumputan-guaEu</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Kerupuk-kulit-sapi-%22chaniago%22-</t>
+          <t>https://barangbaku.com/shops/visit/mangesti.id-30</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Kerupuk kulit sapi</t>
+          <t>kain jumputan</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15000/Pack</t>
+          <t>100000/1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Kerupuk kulit sapi "chaniago"</t>
+          <t>mangesti.id</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Salatiga</t>
+          <t>Sukoharjo</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Peternakan</t>
+          <t>Tekstil</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Olahan / Komponen</t>
+          <t>Hasil / Material</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Kerupuk</t>
+          <t>Kain</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -1923,37 +1923,37 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Kopi-Green-Bean-Specialty-Gayo-Arabica-Full-Washed-WzCqD</t>
+          <t>https://barangbaku.com/product/lawasan-klasik-DmBt2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Kiarra-Artisan-34</t>
+          <t>https://barangbaku.com/shops/visit/mangesti.id-30</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Kopi Green Bean Specialty Gayo Arabica Full Washed</t>
+          <t>lawasan klasik</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>145000/pack</t>
+          <t>105000/1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Kiarra Artisan</t>
+          <t>mangesti.id</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Semarang</t>
+          <t>Sukoharjo</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Perkebunan</t>
+          <t>Tekstil</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Kopi</t>
+          <t>Batik</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -1973,47 +1973,47 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Kopi-Green-Bean-Specialty-Gayo-Arabica-Semi-Washed-rme6s</t>
+          <t>https://barangbaku.com/product/Kerupuk-kulit-sapi-6DFLY</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Kiarra-Artisan-34</t>
+          <t>https://barangbaku.com/shops/visit/Kerupuk-kulit-sapi-%22chaniago%22-</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Kopi Green Bean Specialty Gayo Arabica Semi Washed</t>
+          <t>Kerupuk kulit sapi</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>115000/pack</t>
+          <t>15000/Pack</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Kiarra Artisan</t>
+          <t>Kerupuk kulit sapi "chaniago"</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Semarang</t>
+          <t>Salatiga</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Perkebunan</t>
+          <t>Peternakan</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Hasil / Material</t>
+          <t>Olahan / Komponen</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Kopi</t>
+          <t>Kerupuk</t>
         </is>
       </c>
       <c r="J31" t="b">
@@ -2023,7 +2023,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Kopi-Green-Beans-Specialty-Gayo-Arabica-Longberry-UDabF</t>
+          <t>https://barangbaku.com/product/Kopi-Green-Bean-Specialty-Gayo-Arabica-Full-Washed-WzCqD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2033,12 +2033,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kopi Green Beans Specialty Gayo Arabica Longberry</t>
+          <t>Kopi Green Bean Specialty Gayo Arabica Full Washed</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>194000/pack</t>
+          <t>145000/pack</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2073,47 +2073,47 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Sambal-Teri-Tempe-cpmPa</t>
+          <t>https://barangbaku.com/product/Kopi-Green-Bean-Specialty-Gayo-Arabica-Semi-Washed-rme6s</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Sambal-Teri-Medan-Khas-Irene-40</t>
+          <t>https://barangbaku.com/shops/visit/Kiarra-Artisan-34</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sambal Teri Tempe</t>
+          <t>Kopi Green Bean Specialty Gayo Arabica Semi Washed</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>31000 - Rp56000/pcs</t>
+          <t>115000/pack</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sambal Teri Medan Khas Irene</t>
+          <t>Kiarra Artisan</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Jakarta Selatan</t>
+          <t>Semarang</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pertanian</t>
+          <t>Perkebunan</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Olahan / Komponen</t>
+          <t>Hasil / Material</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Sambal</t>
+          <t>Kopi</t>
         </is>
       </c>
       <c r="J33" t="b">
@@ -2123,47 +2123,47 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Kapur-dolomite-VitL4</t>
+          <t>https://barangbaku.com/product/Kopi-Green-Beans-Specialty-Gayo-Arabica-Longberry-UDabF</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Jamur-Halwa-41</t>
+          <t>https://barangbaku.com/shops/visit/Kiarra-Artisan-34</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Kapur dolomite</t>
+          <t>Kopi Green Beans Specialty Gayo Arabica Longberry</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2000/1000</t>
+          <t>194000/pack</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Jamur Halwa</t>
+          <t>Kiarra Artisan</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bogor</t>
+          <t>Semarang</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pertanian</t>
+          <t>Perkebunan</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pendukung</t>
+          <t>Hasil / Material</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Pupuk</t>
+          <t>Kopi</t>
         </is>
       </c>
       <c r="J34" t="b">
@@ -2173,47 +2173,47 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/dedak-pakan-ayam-RVyr6</t>
+          <t>https://barangbaku.com/product/Sambal-Teri-Tempe-cpmPa</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Jamur-Halwa-41</t>
+          <t>https://barangbaku.com/shops/visit/Sambal-Teri-Medan-Khas-Irene-40</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>dedak pakan ayam</t>
+          <t>Sambal Teri Tempe</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3800/1000</t>
+          <t>31000 - Rp56000/pcs</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Jamur Halwa</t>
+          <t>Sambal Teri Medan Khas Irene</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bogor</t>
+          <t>Jakarta Selatan</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Peternakan</t>
+          <t>Pertanian</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pendukung</t>
+          <t>Olahan / Komponen</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Pakan Ternak</t>
+          <t>Sambal</t>
         </is>
       </c>
       <c r="J35" t="b">
@@ -2223,7 +2223,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Baglog-Jamur-Tiram-zMIcF</t>
+          <t>https://barangbaku.com/product/Kapur-dolomite-VitL4</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Baglog Jamur Tiram</t>
+          <t>Kapur dolomite</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5000/100000</t>
+          <t>2000/1000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2258,12 +2258,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Hasil / Material</t>
+          <t>Pendukung</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Jamur</t>
+          <t>Pupuk</t>
         </is>
       </c>
       <c r="J36" t="b">
@@ -2273,47 +2273,47 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Beras-Merah-Organik-100-4tPXc</t>
+          <t>https://barangbaku.com/product/dedak-pakan-ayam-RVyr6</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Rice-Area-Sidoarjo-45</t>
+          <t>https://barangbaku.com/shops/visit/Jamur-Halwa-41</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Beras Merah Organik 100%</t>
+          <t>dedak pakan ayam</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>25000/1 pcs</t>
+          <t>3800/1000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Rice Area Sidoarjo</t>
+          <t>Jamur Halwa</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sidoarjo</t>
+          <t>Bogor</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Pertanian</t>
+          <t>Peternakan</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Hasil / Material</t>
+          <t>Pendukung</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Beras</t>
+          <t>Pakan Ternak</t>
         </is>
       </c>
       <c r="J37" t="b">
@@ -2323,32 +2323,32 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Beras-Cokelat-Organik-100-7zDLo</t>
+          <t>https://barangbaku.com/product/Baglog-Jamur-Tiram-zMIcF</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Rice-Area-Sidoarjo-45</t>
+          <t>https://barangbaku.com/shops/visit/Jamur-Halwa-41</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Beras Cokelat Organik 100%</t>
+          <t>Baglog Jamur Tiram</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>23000/1 pcs</t>
+          <t>5000/100000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Rice Area Sidoarjo</t>
+          <t>Jamur Halwa</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Sidoarjo</t>
+          <t>Bogor</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Beras</t>
+          <t>Jamur</t>
         </is>
       </c>
       <c r="J38" t="b">
@@ -2373,7 +2373,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Beras-Hitam-100-Organik-oj8CO</t>
+          <t>https://barangbaku.com/product/Beras-Merah-Organik-100-4tPXc</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2383,12 +2383,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Beras Hitam 100% Organik</t>
+          <t>Beras Merah Organik 100%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>40000/1 pcs</t>
+          <t>25000/1 pcs</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2423,37 +2423,37 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Daging-Ayam-QTchA</t>
+          <t>https://barangbaku.com/product/Beras-Cokelat-Organik-100-7zDLo</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/RR-52</t>
+          <t>https://barangbaku.com/shops/visit/Rice-Area-Sidoarjo-45</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Daging Ayam</t>
+          <t>Beras Cokelat Organik 100%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>200000/Gram</t>
+          <t>23000/1 pcs</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>RR</t>
+          <t>Rice Area Sidoarjo</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Boyolali</t>
+          <t>Sidoarjo</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Peternakan</t>
+          <t>Pertanian</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Ayam</t>
+          <t>Beras</t>
         </is>
       </c>
       <c r="J40" t="b">
@@ -2473,37 +2473,37 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Jeruk-Bali-Madu-VnLMp</t>
+          <t>https://barangbaku.com/product/Beras-Hitam-100-Organik-oj8CO</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/mitra-buwana-54</t>
+          <t>https://barangbaku.com/shops/visit/Rice-Area-Sidoarjo-45</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Jeruk Bali Madu</t>
+          <t>Beras Hitam 100% Organik</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>20000/pcs</t>
+          <t>40000/1 pcs</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>mitra buwana</t>
+          <t>Rice Area Sidoarjo</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Pati</t>
+          <t>Sidoarjo</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Perkebunan</t>
+          <t>Pertanian</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2513,7 +2513,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Buah-buahan</t>
+          <t>Beras</t>
         </is>
       </c>
       <c r="J41" t="b">
@@ -2523,37 +2523,37 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Buah-Naga-Merah-dvLaG</t>
+          <t>https://barangbaku.com/product/Daging-Ayam-QTchA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Fruit-Hero-Id-55</t>
+          <t>https://barangbaku.com/shops/visit/RR-52</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Buah Naga Merah</t>
+          <t>Daging Ayam</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>27000/Kg</t>
+          <t>200000/Gram</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Fruit Hero Id</t>
+          <t>RR</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Jakarta Timur</t>
+          <t>Boyolali</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Perkebunan</t>
+          <t>Peternakan</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Buah-buahan</t>
+          <t>Ayam</t>
         </is>
       </c>
       <c r="J42" t="b">
@@ -2573,32 +2573,32 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Alpukat-Mentega-Lampung-zqUEp</t>
+          <t>https://barangbaku.com/product/Jeruk-Bali-Madu-VnLMp</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Fruit-Hero-Id-55</t>
+          <t>https://barangbaku.com/shops/visit/mitra-buwana-54</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Alpukat Mentega Lampung</t>
+          <t>Jeruk Bali Madu</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>30000 - Rp38000/Kg</t>
+          <t>20000/pcs</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Fruit Hero Id</t>
+          <t>mitra buwana</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Jakarta Timur</t>
+          <t>Pati</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2623,7 +2623,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Pisang-Barangan-Merah-t0gnP</t>
+          <t>https://barangbaku.com/product/Buah-Naga-Merah-dvLaG</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Pisang Barangan Merah</t>
+          <t>Buah Naga Merah</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>20000/Sisir</t>
+          <t>27000/Kg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2673,7 +2673,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Nanas-Palembang-I1z0I</t>
+          <t>https://barangbaku.com/product/Alpukat-Mentega-Lampung-zqUEp</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2683,12 +2683,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Nanas Palembang</t>
+          <t>Alpukat Mentega Lampung</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>12000/Pcs</t>
+          <t>30000 - Rp38000/Kg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2723,37 +2723,37 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Ayam-Segar-1-Ekor-Utuh-tgesa</t>
+          <t>https://barangbaku.com/product/Pisang-Barangan-Merah-t0gnP</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/AYAM-BERKAH-BU-YULI-</t>
+          <t>https://barangbaku.com/shops/visit/Fruit-Hero-Id-55</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ayam Segar 1 Ekor Utuh</t>
+          <t>Pisang Barangan Merah</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>65000/1 ekor utuh</t>
+          <t>20000/Sisir</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>AYAM BERKAH BU YULI</t>
+          <t>Fruit Hero Id</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Semarang</t>
+          <t>Jakarta Timur</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Peternakan</t>
+          <t>Perkebunan</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Ayam</t>
+          <t>Buah-buahan</t>
         </is>
       </c>
       <c r="J46" t="b">
@@ -2773,37 +2773,37 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Ayam-Segar-1-kg-KARKAS-8O5av</t>
+          <t>https://barangbaku.com/product/Nanas-Palembang-I1z0I</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/AYAM-BERKAH-BU-YULI-</t>
+          <t>https://barangbaku.com/shops/visit/Fruit-Hero-Id-55</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ayam Segar 1 kg KARKAS</t>
+          <t>Nanas Palembang</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>35000/I kg</t>
+          <t>12000/Pcs</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AYAM BERKAH BU YULI</t>
+          <t>Fruit Hero Id</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Semarang</t>
+          <t>Jakarta Timur</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Peternakan</t>
+          <t>Perkebunan</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Ayam</t>
+          <t>Buah-buahan</t>
         </is>
       </c>
       <c r="J47" t="b">
@@ -2823,37 +2823,37 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Mangga-Indramayu-qllxP</t>
+          <t>https://barangbaku.com/product/Ayam-Segar-1-Ekor-Utuh-tgesa</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Raya-Mangga-64</t>
+          <t>https://barangbaku.com/shops/visit/AYAM-BERKAH-BU-YULI-</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Mangga Indramayu</t>
+          <t>Ayam Segar 1 Ekor Utuh</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>24999/pack</t>
+          <t>65000/1 ekor utuh</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Raya Mangga</t>
+          <t>AYAM BERKAH BU YULI</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Indramayu</t>
+          <t>Semarang</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Perkebunan</t>
+          <t>Peternakan</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2863,7 +2863,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Buah-buahan</t>
+          <t>Ayam</t>
         </is>
       </c>
       <c r="J48" t="b">
@@ -2873,37 +2873,37 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Asam-sunti-RSpJk</t>
+          <t>https://barangbaku.com/product/Ayam-Segar-1-kg-KARKAS-8O5av</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Lia-asam-sunti-66</t>
+          <t>https://barangbaku.com/shops/visit/AYAM-BERKAH-BU-YULI-</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Asam sunti</t>
+          <t>Ayam Segar 1 kg KARKAS</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>25000/Pack</t>
+          <t>35000/I kg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Lia asam sunti</t>
+          <t>AYAM BERKAH BU YULI</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Pidie</t>
+          <t>Semarang</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Perkebunan</t>
+          <t>Peternakan</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Buah-buahan</t>
+          <t>Ayam</t>
         </is>
       </c>
       <c r="J49" t="b">
@@ -2923,37 +2923,37 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Beras-Merah-Organik-DSUS-7qaeq</t>
+          <t>https://barangbaku.com/product/Mangga-Indramayu-qllxP</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/tani-kultura-67</t>
+          <t>https://barangbaku.com/shops/visit/Raya-Mangga-64</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Beras Merah Organik DSUS</t>
+          <t>Mangga Indramayu</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>35000/Kg</t>
+          <t>24999/pack</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>tani kultura</t>
+          <t>Raya Mangga</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Semarang</t>
+          <t>Indramayu</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Pertanian</t>
+          <t>Perkebunan</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Beras</t>
+          <t>Buah-buahan</t>
         </is>
       </c>
       <c r="J50" t="b">
@@ -2973,32 +2973,32 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Biji-Kopi-Arabika-Gunung-Kelir-Grade-1-xEFtk</t>
+          <t>https://barangbaku.com/product/Asam-sunti-RSpJk</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Sembadha-Coffee-68</t>
+          <t>https://barangbaku.com/shops/visit/Lia-asam-sunti-66</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Biji Kopi Arabika Gunung Kelir Grade 1</t>
+          <t>Asam sunti</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>80000/Kg</t>
+          <t>25000/Pack</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sembadha Coffee</t>
+          <t>Lia asam sunti</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Semarang</t>
+          <t>Pidie</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3013,7 +3013,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Kopi</t>
+          <t>Buah-buahan</t>
         </is>
       </c>
       <c r="J51" t="b">
@@ -3023,27 +3023,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Madu-Lebah-Asli-Perkebunan-Pacitan-1Wu3k</t>
+          <t>https://barangbaku.com/product/Beras-Merah-Organik-DSUS-7qaeq</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/madu-yamani-69</t>
+          <t>https://barangbaku.com/shops/visit/tani-kultura-67</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Madu Lebah Asli Perkebunan Pacitan</t>
+          <t>Beras Merah Organik DSUS</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>25000/Gr</t>
+          <t>35000/Kg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>madu yamani</t>
+          <t>tani kultura</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3053,7 +3053,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Peternakan</t>
+          <t>Pertanian</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Madu</t>
+          <t>Beras</t>
         </is>
       </c>
       <c r="J52" t="b">
@@ -3073,47 +3073,47 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Pupuk-Organik-f7f8O</t>
+          <t>https://barangbaku.com/product/Biji-Kopi-Arabika-Gunung-Kelir-Grade-1-xEFtk</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Kebunraya.id-72</t>
+          <t>https://barangbaku.com/shops/visit/Sembadha-Coffee-68</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Pupuk Organik</t>
+          <t>Biji Kopi Arabika Gunung Kelir Grade 1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>9999/pcs</t>
+          <t>80000/Kg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Kebunraya.id</t>
+          <t>Sembadha Coffee</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Indramayu</t>
+          <t>Semarang</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Pertanian</t>
+          <t>Perkebunan</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Pendukung</t>
+          <t>Hasil / Material</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Pupuk</t>
+          <t>Kopi</t>
         </is>
       </c>
       <c r="J53" t="b">
@@ -3123,27 +3123,27 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Daging-Sapi-IWPt7</t>
+          <t>https://barangbaku.com/product/Madu-Lebah-Asli-Perkebunan-Pacitan-1Wu3k</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Sapiku-75</t>
+          <t>https://barangbaku.com/shops/visit/madu-yamani-69</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Daging Sapi</t>
+          <t>Madu Lebah Asli Perkebunan Pacitan</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>115000/kg</t>
+          <t>25000/Gr</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sapiku</t>
+          <t>madu yamani</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3163,7 +3163,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Daging Sapi</t>
+          <t>Madu</t>
         </is>
       </c>
       <c r="J54" t="b">
@@ -3173,47 +3173,47 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Iga-Sapi-ZMtvV</t>
+          <t>https://barangbaku.com/product/Pupuk-Organik-f7f8O</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Sapiku-75</t>
+          <t>https://barangbaku.com/shops/visit/Kebunraya.id-72</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Iga Sapi</t>
+          <t>Pupuk Organik</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>70000/kg</t>
+          <t>9999/pcs</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sapiku</t>
+          <t>Kebunraya.id</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Semarang</t>
+          <t>Indramayu</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Peternakan</t>
+          <t>Pertanian</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Hasil / Material</t>
+          <t>Pendukung</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Daging Sapi</t>
+          <t>Pupuk</t>
         </is>
       </c>
       <c r="J55" t="b">
@@ -3223,32 +3223,32 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Madu-Al---Shifa-V80XU</t>
+          <t>https://barangbaku.com/product/Daging-Sapi-IWPt7</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Hanifa-Herbal-86</t>
+          <t>https://barangbaku.com/shops/visit/Sapiku-75</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Madu Al - Shifa</t>
+          <t>Daging Sapi</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>105000/1pcs</t>
+          <t>115000/kg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Hanifa Herbal</t>
+          <t>Sapiku</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Jakarta Selatan</t>
+          <t>Semarang</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Madu</t>
+          <t>Daging Sapi</t>
         </is>
       </c>
       <c r="J56" t="b">
@@ -3273,47 +3273,47 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Minyak-Zaitun-SASSO-DglzC</t>
+          <t>https://barangbaku.com/product/Iga-Sapi-ZMtvV</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Hanifa-Herbal-86</t>
+          <t>https://barangbaku.com/shops/visit/Sapiku-75</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Minyak Zaitun SASSO</t>
+          <t>Iga Sapi</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>65000/1pcs</t>
+          <t>70000/kg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Hanifa Herbal</t>
+          <t>Sapiku</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Jakarta Selatan</t>
+          <t>Semarang</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Perkebunan</t>
+          <t>Peternakan</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Olahan / Komponen</t>
+          <t>Hasil / Material</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Minyak</t>
+          <t>Daging Sapi</t>
         </is>
       </c>
       <c r="J57" t="b">
@@ -3323,37 +3323,37 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/KAIN-BROKAT--BRUKAT-SEMI-PRANCIS-TERBAIK-MURAH---Biru-Lapis-Lazuli-7MW5N</t>
+          <t>https://barangbaku.com/product/Madu-Al---Shifa-V80XU</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Kain-Brokat-Indonesia-29</t>
+          <t>https://barangbaku.com/shops/visit/Hanifa-Herbal-86</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>KAIN BROKAT  BRUKAT SEMI PRANCIS TERBAIK MURAH - Biru Lapis Lazuli</t>
+          <t>Madu Al - Shifa</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>249000/25 meter x 13 mete</t>
+          <t>105000/1pcs</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Kain Brokat Indonesia</t>
+          <t>Hanifa Herbal</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Jakarta Barat</t>
+          <t>Jakarta Selatan</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Tekstil</t>
+          <t>Peternakan</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3363,47 +3363,47 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Rayon</t>
+          <t>Madu</t>
         </is>
       </c>
       <c r="J58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Peyek-tumpi-c2VT3</t>
+          <t>https://barangbaku.com/product/Minyak-Zaitun-SASSO-DglzC</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Milky-way-49</t>
+          <t>https://barangbaku.com/shops/visit/Hanifa-Herbal-86</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Peyek tumpi</t>
+          <t>Minyak Zaitun SASSO</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>25000/10</t>
+          <t>65000/1pcs</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Milky way</t>
+          <t>Hanifa Herbal</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Bogor</t>
+          <t>Jakarta Selatan</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Pertanian</t>
+          <t>Perkebunan</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3413,47 +3413,47 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Kerupuk Mentah</t>
+          <t>Minyak</t>
         </is>
       </c>
       <c r="J59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Krokot-oclsY</t>
+          <t>https://barangbaku.com/product/KAIN-BROKAT--BRUKAT-SEMI-PRANCIS-TERBAIK-MURAH---Biru-Lapis-Lazuli-7MW5N</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Ardi-sucahyo-58</t>
+          <t>https://barangbaku.com/shops/visit/Kain-Brokat-Indonesia-29</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Krokot</t>
+          <t>KAIN BROKAT  BRUKAT SEMI PRANCIS TERBAIK MURAH - Biru Lapis Lazuli</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2000/Pcs</t>
+          <t>249000/25 meter x 13 mete</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ardi sucahyo</t>
+          <t>Kain Brokat Indonesia</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Semarang</t>
+          <t>Jakarta Barat</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Pertanian</t>
+          <t>Tekstil</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Sayuran</t>
+          <t>Rayon</t>
         </is>
       </c>
       <c r="J60" t="b">
@@ -3473,47 +3473,47 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Soka-9Toza</t>
+          <t>https://barangbaku.com/product/Peyek-tumpi-c2VT3</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Ardi-sucahyo-58</t>
+          <t>https://barangbaku.com/shops/visit/Milky-way-49</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Soka</t>
+          <t>Peyek tumpi</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5000/Pcs</t>
+          <t>25000/10</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Ardi sucahyo</t>
+          <t>Milky way</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Semarang</t>
+          <t>Bogor</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Perkebunan</t>
+          <t>Pertanian</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Hasil / Material</t>
+          <t>Olahan / Komponen</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Pohon</t>
+          <t>Kerupuk Mentah</t>
         </is>
       </c>
       <c r="J61" t="b">
@@ -3523,37 +3523,37 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Batik-Cap-2-meter-576C4</t>
+          <t>https://barangbaku.com/product/Krokot-oclsY</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Sejuta-Batik-</t>
+          <t>https://barangbaku.com/shops/visit/Ardi-sucahyo-58</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Batik Cap 2 meter</t>
+          <t>Krokot</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>130000/pcs</t>
+          <t>2000/Pcs</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sejuta Batik</t>
+          <t>Ardi sucahyo</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sleman</t>
+          <t>Semarang</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Tekstil</t>
+          <t>Pertanian</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3563,7 +3563,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Batik</t>
+          <t>Sayuran</t>
         </is>
       </c>
       <c r="J62" t="b">
@@ -3573,37 +3573,37 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Batik-Tulis-3-meter-F5XgT</t>
+          <t>https://barangbaku.com/product/Soka-9Toza</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Sejuta-Batik-</t>
+          <t>https://barangbaku.com/shops/visit/Ardi-sucahyo-58</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Batik Tulis 3 meter</t>
+          <t>Soka</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>210000/pcs</t>
+          <t>5000/Pcs</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sejuta Batik</t>
+          <t>Ardi sucahyo</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Sleman</t>
+          <t>Semarang</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Tekstil</t>
+          <t>Perkebunan</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Batik</t>
+          <t>Pohon</t>
         </is>
       </c>
       <c r="J63" t="b">
@@ -3623,37 +3623,37 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Dua-lok-coffee-bubuk-uDqM8</t>
+          <t>https://barangbaku.com/product/Batik-Cap-2-meter-576C4</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Dua-Lok-Coffee-61</t>
+          <t>https://barangbaku.com/shops/visit/Sejuta-Batik-</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Dua lok coffee bubuk</t>
+          <t>Batik Cap 2 meter</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>25000/Pcs</t>
+          <t>130000/pcs</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Dua Lok Coffee</t>
+          <t>Sejuta Batik</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Nganjuk</t>
+          <t>Sleman</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Perkebunan</t>
+          <t>Tekstil</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Kopi</t>
+          <t>Batik</t>
         </is>
       </c>
       <c r="J64" t="b">
@@ -3673,37 +3673,37 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Dua-lok-coffee-biji-sjrGf</t>
+          <t>https://barangbaku.com/product/Batik-Tulis-3-meter-F5XgT</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Dua-Lok-Coffee-61</t>
+          <t>https://barangbaku.com/shops/visit/Sejuta-Batik-</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Dua lok coffee biji</t>
+          <t>Batik Tulis 3 meter</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>25000/Pcs</t>
+          <t>210000/pcs</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Dua Lok Coffee</t>
+          <t>Sejuta Batik</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Nganjuk</t>
+          <t>Sleman</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Perkebunan</t>
+          <t>Tekstil</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Kopi</t>
+          <t>Batik</t>
         </is>
       </c>
       <c r="J65" t="b">
@@ -3723,32 +3723,32 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Melati-Kuncup-kXs5W</t>
+          <t>https://barangbaku.com/product/Dua-lok-coffee-bubuk-uDqM8</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Ranah-Melati-70</t>
+          <t>https://barangbaku.com/shops/visit/Dua-Lok-Coffee-61</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Melati Kuncup</t>
+          <t>Dua lok coffee bubuk</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>110000/Kilogram</t>
+          <t>25000/Pcs</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ranah Melati</t>
+          <t>Dua Lok Coffee</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Kebumen</t>
+          <t>Nganjuk</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Bunga</t>
+          <t>Kopi</t>
         </is>
       </c>
       <c r="J66" t="b">
@@ -3773,37 +3773,37 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Cat-Tembok-Q3kR4</t>
+          <t>https://barangbaku.com/product/Dua-lok-coffee-biji-sjrGf</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Cat-Doi-73</t>
+          <t>https://barangbaku.com/shops/visit/Dua-Lok-Coffee-61</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cat Tembok</t>
+          <t>Dua lok coffee biji</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>250000/kg</t>
+          <t>25000/Pcs</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Cat Doi</t>
+          <t>Dua Lok Coffee</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Purwakarta</t>
+          <t>Nganjuk</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Konstruksi</t>
+          <t>Perkebunan</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3813,7 +3813,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Cat</t>
+          <t>Kopi</t>
         </is>
       </c>
       <c r="J67" t="b">
@@ -3823,47 +3823,47 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Tahu-Putih-qOnon</t>
+          <t>https://barangbaku.com/product/Melati-Kuncup-kXs5W</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Kedelai-Surabaya-74</t>
+          <t>https://barangbaku.com/shops/visit/Ranah-Melati-70</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Tahu Putih</t>
+          <t>Melati Kuncup</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2500/pcs</t>
+          <t>110000/Kilogram</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Kedelai Surabaya</t>
+          <t>Ranah Melati</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Surabaya</t>
+          <t>Kebumen</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Pertanian</t>
+          <t>Perkebunan</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Olahan / Komponen</t>
+          <t>Hasil / Material</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Tepung</t>
+          <t>Bunga</t>
         </is>
       </c>
       <c r="J68" t="b">
@@ -3873,37 +3873,37 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Telur-Ayam-Kampung-CJAgk</t>
+          <t>https://barangbaku.com/product/Cat-Tembok-Q3kR4</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Ayamku-Ayammu-76</t>
+          <t>https://barangbaku.com/shops/visit/Cat-Doi-73</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Telur Ayam Kampung</t>
+          <t>Cat Tembok</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3000/pcs</t>
+          <t>250000/kg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ayamku Ayammu</t>
+          <t>Cat Doi</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Semarang</t>
+          <t>Purwakarta</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Peternakan</t>
+          <t>Konstruksi</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Telur</t>
+          <t>Cat</t>
         </is>
       </c>
       <c r="J69" t="b">
@@ -3923,47 +3923,47 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/daging-sapi-kemasan-RhU2F</t>
+          <t>https://barangbaku.com/product/Tahu-Putih-qOnon</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Delia-Frozen-Food-77</t>
+          <t>https://barangbaku.com/shops/visit/Kedelai-Surabaya-74</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>daging sapi kemasan</t>
+          <t>Tahu Putih</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>100000/1 pcs</t>
+          <t>2500/pcs</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Delia Frozen Food</t>
+          <t>Kedelai Surabaya</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bekasi</t>
+          <t>Surabaya</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Peternakan</t>
+          <t>Pertanian</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Hasil / Material</t>
+          <t>Olahan / Komponen</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Daging Sapi</t>
+          <t>Tepung</t>
         </is>
       </c>
       <c r="J70" t="b">
@@ -3973,37 +3973,37 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Beras-SLYP-Super-euuPA</t>
+          <t>https://barangbaku.com/product/Telur-Ayam-Kampung-CJAgk</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Toko-Bintang-Dunia-81</t>
+          <t>https://barangbaku.com/shops/visit/Ayamku-Ayammu-76</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Beras SLYP Super</t>
+          <t>Telur Ayam Kampung</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>39000/1</t>
+          <t>3000/pcs</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Toko Bintang Dunia</t>
+          <t>Ayamku Ayammu</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bangkalan</t>
+          <t>Semarang</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Pertanian</t>
+          <t>Peternakan</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Beras</t>
+          <t>Telur</t>
         </is>
       </c>
       <c r="J71" t="b">
@@ -4023,37 +4023,37 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Beras-SLYP-Super-NIiWG</t>
+          <t>https://barangbaku.com/product/daging-sapi-kemasan-RhU2F</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Toko-Bintang-Dunia-81</t>
+          <t>https://barangbaku.com/shops/visit/Delia-Frozen-Food-77</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Beras SLYP Super</t>
+          <t>daging sapi kemasan</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>59000/1</t>
+          <t>100000/1 pcs</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Toko Bintang Dunia</t>
+          <t>Delia Frozen Food</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bangkalan</t>
+          <t>Bekasi</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Pertanian</t>
+          <t>Peternakan</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4063,7 +4063,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Beras</t>
+          <t>Daging Sapi</t>
         </is>
       </c>
       <c r="J72" t="b">
@@ -4073,32 +4073,32 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Singkong-HzzlM</t>
+          <t>https://barangbaku.com/product/Beras-SLYP-Super-euuPA</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Bahan-baku-82</t>
+          <t>https://barangbaku.com/shops/visit/Toko-Bintang-Dunia-81</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Singkong</t>
+          <t>Beras SLYP Super</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>15000/Kg</t>
+          <t>39000/1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Bahan baku</t>
+          <t>Toko Bintang Dunia</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bekasi</t>
+          <t>Bangkalan</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Umbi</t>
+          <t>Beras</t>
         </is>
       </c>
       <c r="J73" t="b">
@@ -4123,37 +4123,37 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/product/Kain-ceruty-Baby-Doll-30m2E</t>
+          <t>https://barangbaku.com/product/Beras-SLYP-Super-NIiWG</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://barangbaku.com/shops/visit/Siti-Hanna-84</t>
+          <t>https://barangbaku.com/shops/visit/Toko-Bintang-Dunia-81</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Kain ceruty Baby Doll</t>
+          <t>Beras SLYP Super</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>30000/50 cm</t>
+          <t>59000/1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Siti Hanna</t>
+          <t>Toko Bintang Dunia</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bandung</t>
+          <t>Bangkalan</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Tekstil</t>
+          <t>Pertanian</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -4163,7 +4163,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Perca</t>
+          <t>Beras</t>
         </is>
       </c>
       <c r="J74" t="b">
@@ -4173,50 +4173,150 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>https://barangbaku.com/product/Singkong-HzzlM</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://barangbaku.com/shops/visit/Bahan-baku-82</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Singkong</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>15000/Kg</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Bahan baku</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Bekasi</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Pertanian</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Hasil / Material</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Umbi</t>
+        </is>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://barangbaku.com/product/Kain-ceruty-Baby-Doll-30m2E</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://barangbaku.com/shops/visit/Siti-Hanna-84</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Kain ceruty Baby Doll</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>30000/50 cm</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Siti Hanna</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Tekstil</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Hasil / Material</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Perca</t>
+        </is>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
           <t>https://barangbaku.com/product/Kain-flanel-1-meter-j0ilA</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>https://barangbaku.com/shops/visit/Adamantan-Kerajinan-</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Kain flanel 1 meter</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>11000/1 meter</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>Adamantan Kerajinan</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>Sleman</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>Tekstil</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Hasil / Material</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Hasil / Material</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>Perca</t>
         </is>
       </c>
-      <c r="J75" t="b">
+      <c r="J77" t="b">
         <v>0</v>
       </c>
     </row>
